--- a/contents/Character.xlsx
+++ b/contents/Character.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD356CD1-E123-4AB6-994D-3883BC3D243E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6A551A-8B38-4435-B8E1-DE1056D74866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25605" yWindow="255" windowWidth="25560" windowHeight="20745" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="165" windowWidth="32040" windowHeight="20745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Character Schema" sheetId="3" r:id="rId1"/>
@@ -158,10 +158,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터 상태값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BASE_WalkCost</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -327,6 +323,10 @@
   </si>
   <si>
     <t>스킬 공격 유형 : 0 근거리, 1 장거리 투사체, 2 장판기, 3 변화기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 상태값 : 0 nomal, 1 attack, 2 cast, 3 dead</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -817,7 +817,7 @@
     <col min="3" max="3" width="22.75" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.125" style="10" customWidth="1"/>
     <col min="7" max="7" width="25.625" style="10" customWidth="1"/>
     <col min="8" max="16384" width="9" style="10"/>
   </cols>
@@ -901,7 +901,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
@@ -910,7 +910,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -1072,7 +1072,7 @@
         <v>28</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="G16" s="4"/>
     </row>
@@ -1081,16 +1081,16 @@
         <v>15</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1195,7 +1195,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>23</v>
@@ -1204,7 +1204,7 @@
         <v>26</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -1213,7 +1213,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>23</v>
@@ -1222,7 +1222,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -1231,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>23</v>
@@ -1240,7 +1240,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -1249,7 +1249,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>23</v>
@@ -1258,7 +1258,7 @@
         <v>28</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -1267,7 +1267,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>23</v>
@@ -1276,7 +1276,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -1285,7 +1285,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
@@ -1294,7 +1294,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -1303,7 +1303,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>23</v>
@@ -1312,7 +1312,7 @@
         <v>28</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -1321,7 +1321,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>10</v>
@@ -1330,7 +1330,7 @@
         <v>28</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -1339,7 +1339,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>23</v>
@@ -1348,7 +1348,7 @@
         <v>28</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -1357,7 +1357,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
@@ -1366,7 +1366,7 @@
         <v>28</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -1375,7 +1375,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>23</v>
@@ -1384,7 +1384,7 @@
         <v>28</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" s="4"/>
     </row>
@@ -1393,7 +1393,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>10</v>
@@ -1402,7 +1402,7 @@
         <v>28</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="4"/>
     </row>
@@ -1411,7 +1411,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>23</v>
@@ -1420,7 +1420,7 @@
         <v>28</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16" s="4"/>
     </row>
@@ -1429,7 +1429,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>10</v>
@@ -1438,7 +1438,7 @@
         <v>28</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1447,16 +1447,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1470,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F411E5C5-ED17-4A67-B4F3-69F37ED40420}">
   <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>23</v>
@@ -1533,7 +1533,7 @@
         <v>26</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -1542,7 +1542,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>23</v>
@@ -1551,7 +1551,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -1560,7 +1560,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>23</v>
@@ -1569,7 +1569,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -1578,7 +1578,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>23</v>
@@ -1587,7 +1587,7 @@
         <v>28</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -1596,16 +1596,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -1614,16 +1614,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="G9" s="4"/>
     </row>
